--- a/ドキュメント/成果物_基本・詳細設計/成果物_基本・詳細設計_白畑.xlsx
+++ b/ドキュメント/成果物_基本・詳細設計/成果物_基本・詳細設計_白畑.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\TMS60\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\TMS60\ドキュメント\成果物_基本・詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2772C-E720-4519-91C5-5F89078AA97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7EB4F-7F48-4CBC-898B-F9A051C0EAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1487,74 +1487,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1574,16 +1544,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,26 +1577,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1643,11 +1643,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1678,57 +1729,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1769,7 +1769,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>852461</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>147177</xdr:rowOff>
+      <xdr:rowOff>147176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1798,7 +1798,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="402342" y="1022537"/>
-          <a:ext cx="8182178" cy="4559493"/>
+          <a:ext cx="8182178" cy="4559492"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1815,15 +1815,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>65134</xdr:colOff>
+      <xdr:colOff>248727</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>96708</xdr:rowOff>
+      <xdr:rowOff>87183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>606825</xdr:colOff>
+      <xdr:colOff>785182</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>131890</xdr:rowOff>
+      <xdr:rowOff>122365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1851,8 +1851,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="408034" y="1011108"/>
-          <a:ext cx="7914041" cy="4407157"/>
+          <a:off x="591627" y="1001583"/>
+          <a:ext cx="7908805" cy="4407157"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2348,19 +2348,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2372,192 +2372,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21">
+      <c r="G2" s="52"/>
+      <c r="H2" s="55">
         <v>45999</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="52"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="33"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="33"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="33"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="53" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="33"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="32" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="33"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="50"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -3548,6 +3548,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -3556,25 +3575,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -3598,19 +3598,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3622,192 +3622,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21">
+      <c r="G2" s="52"/>
+      <c r="H2" s="55">
         <v>45999</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="52"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="33"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="33"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="33"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="53" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="33"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="32" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="33"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="50"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -4798,18 +4798,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="A13:C13"/>
@@ -4825,6 +4813,18 @@
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -4837,7 +4837,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4851,16 +4851,16 @@
       <c r="A1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4872,48 +4872,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21">
+      <c r="G2" s="52"/>
+      <c r="H2" s="55">
         <v>46001</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="56"/>
@@ -6255,7 +6255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35AF98C-5AAF-4EA4-98AF-3E665E75F089}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:J33"/>
     </sheetView>
   </sheetViews>
@@ -6270,16 +6270,16 @@
       <c r="A1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
@@ -6291,48 +6291,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21">
+      <c r="G2" s="52"/>
+      <c r="H2" s="55">
         <v>46006</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="56"/>
@@ -7692,16 +7692,16 @@
       <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
@@ -7713,191 +7713,191 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21">
+      <c r="G2" s="52"/>
+      <c r="H2" s="55">
         <v>46001</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="76"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="66"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="71"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="71"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="71"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="71"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="66"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32" t="str">
+      <c r="B15" s="20"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="19" t="str">
         <f>"task-edit-servlet"</f>
         <v>task-edit-servlet</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="6" t="s">
         <v>22</v>
       </c>
@@ -7906,11 +7906,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
@@ -7923,18 +7923,18 @@
       <c r="G16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
@@ -7947,16 +7947,16 @@
       <c r="G17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="66"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
@@ -7969,16 +7969,16 @@
       <c r="G18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="66"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="78"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="7" t="s">
         <v>51</v>
       </c>
@@ -7991,16 +7991,16 @@
       <c r="G19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="66"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="7" t="s">
         <v>52</v>
       </c>
@@ -8013,16 +8013,16 @@
       <c r="G20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="66"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="7" t="s">
         <v>53</v>
       </c>
@@ -8035,16 +8035,16 @@
       <c r="G21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="66"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="7" t="s">
         <v>54</v>
       </c>
@@ -8057,16 +8057,16 @@
       <c r="G22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="88"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="7" t="s">
         <v>55</v>
       </c>
@@ -8075,16 +8075,16 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="88"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="82"/>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="7" t="s">
         <v>56</v>
       </c>
@@ -8093,30 +8093,30 @@
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="66"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="78"/>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="93"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="6" t="s">
         <v>24</v>
       </c>
@@ -8129,26 +8129,26 @@
       <c r="G26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="H26" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="66"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="78"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="32" t="str">
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="19" t="str">
         <f>"task-list.jsp"</f>
         <v>task-list.jsp</v>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="6" t="s">
         <v>22</v>
       </c>
@@ -8157,11 +8157,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="11" t="s">
         <v>57</v>
       </c>
@@ -8170,9 +8170,9 @@
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="81"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1"/>
     <row r="30" spans="1:10" ht="19.5" customHeight="1"/>
@@ -9150,31 +9150,6 @@
     <row r="1002" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:J17"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A7:J13"/>
@@ -9190,6 +9165,31 @@
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="H26:J26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9220,16 +9220,16 @@
       <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9241,191 +9241,191 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21">
+      <c r="G2" s="52"/>
+      <c r="H2" s="55">
         <v>46001</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="76"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="66"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="71"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="71"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="71"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="71"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="66"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32" t="str">
+      <c r="B15" s="20"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="19" t="str">
         <f>"task-menu.jsp"</f>
         <v>task-menu.jsp</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="6" t="s">
         <v>22</v>
       </c>
@@ -9434,11 +9434,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
@@ -9451,14 +9451,14 @@
       <c r="G16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="74" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="94"/>
@@ -9473,7 +9473,7 @@
       <c r="G17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="79"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="94"/>
       <c r="J17" s="96"/>
     </row>
@@ -10464,6 +10464,14 @@
     <row r="1002" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D5:J5"/>
@@ -10475,14 +10483,6 @@
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10513,16 +10513,16 @@
       <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
@@ -10534,191 +10534,191 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21">
+      <c r="G2" s="52"/>
+      <c r="H2" s="55">
         <v>46006</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="76"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="66"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="71"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="71"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="71"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="71"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="66"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32" t="str">
+      <c r="B15" s="20"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="19" t="str">
         <f>"task-delete-servlet"</f>
         <v>task-delete-servlet</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="6" t="s">
         <v>22</v>
       </c>
@@ -10727,11 +10727,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
@@ -10744,18 +10744,18 @@
       <c r="G16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="7" t="s">
         <v>72</v>
       </c>
@@ -10764,30 +10764,30 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="88"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="82"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="93"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="70"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="6" t="s">
         <v>24</v>
       </c>
@@ -10800,26 +10800,26 @@
       <c r="G19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="66"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="32" t="str">
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="19" t="str">
         <f>"task-list.jsp"</f>
         <v>task-list.jsp</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="6" t="s">
         <v>22</v>
       </c>
@@ -10828,11 +10828,11 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="11" t="s">
         <v>81</v>
       </c>
@@ -10841,9 +10841,9 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="81"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="73"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1"/>
     <row r="23" spans="1:10" ht="19.5" customHeight="1"/>
@@ -11823,20 +11823,6 @@
     <row r="997" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A18:J18"/>
     <mergeCell ref="A7:J13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:E1"/>
@@ -11849,6 +11835,20 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A18:J18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11879,16 +11879,16 @@
       <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
@@ -11900,191 +11900,191 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="21">
+      <c r="G2" s="52"/>
+      <c r="H2" s="55">
         <v>46006</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="26"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="76"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="66"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="71"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="71"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="88"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="71"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="71"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="66"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32" t="str">
+      <c r="B15" s="20"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="19" t="str">
         <f>"task-menu.jsp"</f>
         <v>task-menu.jsp</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="6" t="s">
         <v>22</v>
       </c>
@@ -12093,11 +12093,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
@@ -12110,14 +12110,14 @@
       <c r="G16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="74" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="94"/>
@@ -12132,7 +12132,7 @@
       <c r="G17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="79"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="94"/>
       <c r="J17" s="96"/>
     </row>
@@ -13123,16 +13123,8 @@
     <row r="1002" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A7:J13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:E1"/>
@@ -13140,8 +13132,16 @@
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
